--- a/data/metamors.xlsx
+++ b/data/metamors.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t xml:space="preserve">from</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fancying</t>
   </si>
 </sst>
 </file>
@@ -112,6 +115,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -133,6 +137,7 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,16 +208,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -418,10 +420,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,6 +438,20 @@
       </c>
       <c r="D16" s="0" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
